--- a/Files/project_hongkong/crs sample data/CRS Sample Data.xlsx
+++ b/Files/project_hongkong/crs sample data/CRS Sample Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian.m.perez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian.m.perez\Documents\Visual Studio 2015\Projects\Project_XML\Files\project_hongkong\crs sample data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="23040" windowHeight="10260"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="23040" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual_tbl" sheetId="5" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="246">
-  <si>
-    <t>CRS Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="248">
   <si>
     <t>Account Number</t>
   </si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>097-444-567890</t>
-  </si>
-  <si>
-    <t>Non-Reportable Person</t>
   </si>
   <si>
     <t>Z123456(1)</t>
@@ -90,9 +84,6 @@
     <t>321-444-999999</t>
   </si>
   <si>
-    <t>Passive NFE with one or more controlling person that is  a Reportable Person</t>
-  </si>
-  <si>
     <t>101/F One Island East, 18 Westlands Road, Quarry Bay, Hong Kong</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
   </si>
   <si>
     <t>333-444-567890</t>
-  </si>
-  <si>
-    <t>Reportable Person</t>
   </si>
   <si>
     <t>097-444-123456</t>
@@ -129,9 +117,6 @@
 United Kingdom</t>
   </si>
   <si>
-    <t>Passive NFE that is a Reportable Person</t>
-  </si>
-  <si>
     <t>097-444-113355</t>
   </si>
   <si>
@@ -771,6 +756,27 @@
   </si>
   <si>
     <t>TIN 3 issuedBy</t>
+  </si>
+  <si>
+    <t>CRS102</t>
+  </si>
+  <si>
+    <t>CRS101</t>
+  </si>
+  <si>
+    <t>CRS103</t>
+  </si>
+  <si>
+    <t>CRS104</t>
+  </si>
+  <si>
+    <t>CRS Status 1</t>
+  </si>
+  <si>
+    <t>CRS Status 2</t>
+  </si>
+  <si>
+    <t>CRS Status 3</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +923,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.42578125" defaultRowHeight="15"/>
@@ -1296,117 +1303,117 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S2" s="4">
         <v>10233317</v>
@@ -1420,46 +1427,46 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S3" s="4">
         <v>170000</v>
@@ -1473,46 +1480,46 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S4" s="4">
         <v>275380</v>
@@ -1530,46 +1537,46 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S5" s="4">
         <v>34090</v>
@@ -1585,46 +1592,46 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S6" s="4">
         <v>3590000</v>
@@ -1638,50 +1645,50 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5">
         <v>987456123</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S7" s="4">
         <v>2333027.23</v>
@@ -1695,46 +1702,46 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S8" s="4">
         <v>8204.2199999999993</v>
@@ -1748,46 +1755,46 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S9" s="4">
         <v>20493.580000000002</v>
@@ -1801,48 +1808,48 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S10" s="4">
         <v>5038</v>
@@ -1854,50 +1861,50 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S11" s="4">
         <v>5038</v>
@@ -1917,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ11"/>
+  <dimension ref="A1:BS11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1929,351 +1936,356 @@
     <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="63" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:71">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="R1" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>161</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AL1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AN1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW1" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AX1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK1" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="BL1" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="AF1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR1" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS1" s="12" t="s">
+      <c r="BM1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="AT1" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB1" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BN1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO1" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BP1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BR1" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BS1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="BG1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="BH1" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="BI1" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="BJ1" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="BK1" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL1" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="BM1" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BN1" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BO1" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP1" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="BQ1" s="14" t="s">
-        <v>195</v>
-      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:71">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2" s="4">
+        <v>28741669.309999999</v>
+      </c>
+      <c r="T2" s="4">
+        <v>7469</v>
+      </c>
+      <c r="U2" s="4">
+        <v>14859.15</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="3">
+        <v>158760</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>28741669.309999999</v>
-      </c>
-      <c r="R2" s="4">
-        <v>7469</v>
-      </c>
-      <c r="S2" s="4">
-        <v>14859.15</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="3">
-        <v>158760</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2281,13 +2293,13 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
-      <c r="AQ2" s="5"/>
+      <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
+      <c r="AT2" s="1"/>
       <c r="AU2" s="5"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -2297,118 +2309,120 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="5"/>
+      <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
+      <c r="BJ2" s="1"/>
       <c r="BK2" s="5"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:71">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S3" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="T3" s="4">
+        <v>7600</v>
+      </c>
+      <c r="U3" s="4">
+        <v>57800</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="3">
+        <v>576000</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>30000000</v>
-      </c>
-      <c r="R3" s="4">
-        <v>7600</v>
-      </c>
-      <c r="S3" s="4">
-        <v>57800</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="3">
-        <v>576000</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
+      <c r="AK3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
-      <c r="AQ3" s="5"/>
+      <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
+      <c r="AT3" s="1"/>
       <c r="AU3" s="5"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
@@ -2418,76 +2432,78 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
-      <c r="BG3" s="5"/>
+      <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
       <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
+      <c r="BJ3" s="1"/>
       <c r="BK3" s="5"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:71">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>241</v>
+      </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>9876543210</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>9876543210</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4" s="4">
         <v>132799990</v>
       </c>
-      <c r="R4" s="4">
+      <c r="T4" s="4">
         <v>38005</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
+      <c r="AC4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -2497,13 +2513,13 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="5"/>
+      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
+      <c r="AT4" s="1"/>
       <c r="AU4" s="5"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
@@ -2513,233 +2529,237 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-      <c r="BG4" s="5"/>
+      <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
       <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
+      <c r="BJ4" s="1"/>
       <c r="BK4" s="5"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:71">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>243</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>9977553311</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>9977553311</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1336900.05</v>
+      </c>
+      <c r="T5" s="4">
+        <v>356.56</v>
+      </c>
+      <c r="U5" s="4">
+        <v>4200</v>
+      </c>
+      <c r="V5" s="3">
+        <v>53000</v>
+      </c>
+      <c r="W5" s="3">
+        <v>620097</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>1336900.05</v>
-      </c>
-      <c r="R5" s="4">
-        <v>356.56</v>
-      </c>
-      <c r="S5" s="4">
-        <v>4200</v>
-      </c>
-      <c r="T5" s="3">
-        <v>53000</v>
-      </c>
-      <c r="U5" s="3">
-        <v>620097</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>207</v>
+      <c r="AA5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
-      <c r="AL5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
       <c r="AN5" s="1" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>202</v>
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
       <c r="BD5" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>201</v>
+        <v>35</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI5" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:71">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S6" s="4">
         <v>5900000</v>
       </c>
-      <c r="R6" s="4">
+      <c r="T6" s="4">
         <v>1668.66</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="5"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="AD6" s="1"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -2749,13 +2769,13 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
-      <c r="AQ6" s="5"/>
+      <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
+      <c r="AT6" s="1"/>
       <c r="AU6" s="5"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
@@ -2765,74 +2785,76 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
-      <c r="BG6" s="5"/>
+      <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
+      <c r="BJ6" s="1"/>
       <c r="BK6" s="5"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:71">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S7" s="4">
         <v>88002293</v>
       </c>
-      <c r="R7" s="4">
+      <c r="T7" s="4">
         <v>29023</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="5"/>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -2842,13 +2864,13 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
-      <c r="AQ7" s="5"/>
+      <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
+      <c r="AT7" s="1"/>
       <c r="AU7" s="5"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
@@ -2858,96 +2880,98 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-      <c r="BG7" s="5"/>
+      <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
+      <c r="BJ7" s="1"/>
       <c r="BK7" s="5"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:71">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>243</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8" s="4">
         <v>29074834.780000001</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <v>3203.89</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="3">
+      <c r="U8" s="4"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="3">
         <v>92940.23</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="X8" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>208</v>
+        <v>74</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -2955,13 +2979,13 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-      <c r="AQ8" s="5"/>
+      <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
+      <c r="AT8" s="1"/>
       <c r="AU8" s="5"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
@@ -2971,136 +2995,138 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-      <c r="BG8" s="5"/>
+      <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
+      <c r="BJ8" s="1"/>
       <c r="BK8" s="5"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:71">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>829373947</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>829373947</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="4">
         <v>303385.38</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <v>298</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="3">
+      <c r="U9" s="4"/>
+      <c r="V9" s="3">
         <v>73834</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>349834.92</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="X9" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>209</v>
+        <v>75</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
-      <c r="AL9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
       <c r="AN9" s="1" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ9" s="5" t="s">
-        <v>203</v>
+        <v>81</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
@@ -3108,100 +3134,102 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-      <c r="BG9" s="5"/>
+      <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
+      <c r="BJ9" s="1"/>
       <c r="BK9" s="5"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:71">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10" s="4">
         <v>671293.38</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <v>4012.83</v>
       </c>
-      <c r="S10" s="4">
+      <c r="U10" s="4">
         <v>38112.080000000002</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="3">
+      <c r="V10" s="1"/>
+      <c r="W10" s="3">
         <v>87000.320000000007</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="X10" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>210</v>
+        <v>76</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -3209,13 +3237,13 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-      <c r="AQ10" s="5"/>
+      <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
+      <c r="AT10" s="1"/>
       <c r="AU10" s="5"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
@@ -3225,96 +3253,98 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
-      <c r="BG10" s="5"/>
+      <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
       <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
+      <c r="BJ10" s="1"/>
       <c r="BK10" s="5"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:71">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S11" s="4">
         <v>39203877.380000003</v>
       </c>
-      <c r="R11" s="4">
+      <c r="T11" s="4">
         <v>632.49</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1" t="s">
+      <c r="U11" s="4"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="AC11" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -3322,13 +3352,13 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="5"/>
+      <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
+      <c r="AT11" s="1"/>
       <c r="AU11" s="5"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -3338,17 +3368,19 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
-      <c r="BG11" s="5"/>
+      <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
+      <c r="BJ11" s="1"/>
       <c r="BK11" s="5"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
